--- a/cSingsSummTargetOpposit/_seed012_24_03_13.xlsx
+++ b/cSingsSummTargetOpposit/_seed012_24_03_13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="9435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="9435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="seed0_23_11_26" sheetId="1" r:id="rId1"/>
@@ -875,7 +875,7 @@
   <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3054,10 +3054,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T69"/>
+  <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:T4"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3068,7 +3068,7 @@
     <col min="19" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K1">
         <v>1</v>
       </c>
@@ -3090,8 +3090,11 @@
       <c r="Q1">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1">
+        <v>-8191650</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3140,8 +3143,12 @@
       <c r="Q2">
         <v>-1188</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2">
+        <f>SUM(U3:U69)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3563</v>
       </c>
@@ -3177,8 +3184,12 @@
         <f>MIN(S3:S69)</f>
         <v>-26571992</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <f>IF(S3&lt;U$1,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3710</v>
       </c>
@@ -3214,8 +3225,12 @@
         <f>MAX(S3:S69)</f>
         <v>1038891</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <f t="shared" ref="U4:U67" si="0">IF(S4&lt;U$1,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3500</v>
       </c>
@@ -3247,8 +3262,12 @@
         <f>A5*K$2+B5*L$2+C5*M$2+D5*N$2+E5*O$2+F5*P$2+G5*Q$2</f>
         <v>-25670239</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3381</v>
       </c>
@@ -3280,8 +3299,12 @@
         <f>A6*K$2+B6*L$2+C6*M$2+D6*N$2+E6*O$2+F6*P$2+G6*Q$2</f>
         <v>-25329112</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2954</v>
       </c>
@@ -3313,8 +3336,12 @@
         <f>A7*K$2+B7*L$2+C7*M$2+D7*N$2+E7*O$2+F7*P$2+G7*Q$2</f>
         <v>-24930347</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2842</v>
       </c>
@@ -3346,8 +3373,12 @@
         <f>A8*K$2+B8*L$2+C8*M$2+D8*N$2+E8*O$2+F8*P$2+G8*Q$2</f>
         <v>-24461578</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2996</v>
       </c>
@@ -3379,8 +3410,12 @@
         <f>A9*K$2+B9*L$2+C9*M$2+D9*N$2+E9*O$2+F9*P$2+G9*Q$2</f>
         <v>-23749482</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2905</v>
       </c>
@@ -3412,8 +3447,12 @@
         <f>A10*K$2+B10*L$2+C10*M$2+D10*N$2+E10*O$2+F10*P$2+G10*Q$2</f>
         <v>-23666900</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2583</v>
       </c>
@@ -3445,8 +3484,12 @@
         <f>A11*K$2+B11*L$2+C11*M$2+D11*N$2+E11*O$2+F11*P$2+G11*Q$2</f>
         <v>-22001585</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3051</v>
       </c>
@@ -3478,8 +3521,12 @@
         <f>A12*K$2+B12*L$2+C12*M$2+D12*N$2+E12*O$2+F12*P$2+G12*Q$2</f>
         <v>-21910101</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3024</v>
       </c>
@@ -3511,8 +3558,12 @@
         <f>A13*K$2+B13*L$2+C13*M$2+D13*N$2+E13*O$2+F13*P$2+G13*Q$2</f>
         <v>-21291234</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2541</v>
       </c>
@@ -3544,8 +3595,12 @@
         <f>A14*K$2+B14*L$2+C14*M$2+D14*N$2+E14*O$2+F14*P$2+G14*Q$2</f>
         <v>-20799555</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2170</v>
       </c>
@@ -3577,8 +3632,12 @@
         <f>A15*K$2+B15*L$2+C15*M$2+D15*N$2+E15*O$2+F15*P$2+G15*Q$2</f>
         <v>-20267584</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2400</v>
       </c>
@@ -3610,8 +3669,12 @@
         <f>A16*K$2+B16*L$2+C16*M$2+D16*N$2+E16*O$2+F16*P$2+G16*Q$2</f>
         <v>-20050265</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2225</v>
       </c>
@@ -3643,8 +3706,12 @@
         <f>A17*K$2+B17*L$2+C17*M$2+D17*N$2+E17*O$2+F17*P$2+G17*Q$2</f>
         <v>-19476121</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2170</v>
       </c>
@@ -3676,8 +3743,12 @@
         <f>A18*K$2+B18*L$2+C18*M$2+D18*N$2+E18*O$2+F18*P$2+G18*Q$2</f>
         <v>-19439434</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2288</v>
       </c>
@@ -3709,8 +3780,12 @@
         <f>A19*K$2+B19*L$2+C19*M$2+D19*N$2+E19*O$2+F19*P$2+G19*Q$2</f>
         <v>-19095548</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2310</v>
       </c>
@@ -3742,8 +3817,12 @@
         <f>A20*K$2+B20*L$2+C20*M$2+D20*N$2+E20*O$2+F20*P$2+G20*Q$2</f>
         <v>-19025086</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2450</v>
       </c>
@@ -3775,8 +3854,12 @@
         <f>A21*K$2+B21*L$2+C21*M$2+D21*N$2+E21*O$2+F21*P$2+G21*Q$2</f>
         <v>-18942214</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2261</v>
       </c>
@@ -3808,8 +3891,12 @@
         <f>A22*K$2+B22*L$2+C22*M$2+D22*N$2+E22*O$2+F22*P$2+G22*Q$2</f>
         <v>-18891093</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2275</v>
       </c>
@@ -3841,8 +3928,12 @@
         <f>A23*K$2+B23*L$2+C23*M$2+D23*N$2+E23*O$2+F23*P$2+G23*Q$2</f>
         <v>-18847854</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2506</v>
       </c>
@@ -3874,8 +3965,12 @@
         <f>A24*K$2+B24*L$2+C24*M$2+D24*N$2+E24*O$2+F24*P$2+G24*Q$2</f>
         <v>-18402279</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2142</v>
       </c>
@@ -3907,8 +4002,12 @@
         <f>A25*K$2+B25*L$2+C25*M$2+D25*N$2+E25*O$2+F25*P$2+G25*Q$2</f>
         <v>-17909403</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2149</v>
       </c>
@@ -3940,8 +4039,12 @@
         <f>A26*K$2+B26*L$2+C26*M$2+D26*N$2+E26*O$2+F26*P$2+G26*Q$2</f>
         <v>-17892298</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2079</v>
       </c>
@@ -3973,8 +4076,12 @@
         <f>A27*K$2+B27*L$2+C27*M$2+D27*N$2+E27*O$2+F27*P$2+G27*Q$2</f>
         <v>-17741236</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2100</v>
       </c>
@@ -4006,8 +4113,12 @@
         <f>A28*K$2+B28*L$2+C28*M$2+D28*N$2+E28*O$2+F28*P$2+G28*Q$2</f>
         <v>-17582309</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2142</v>
       </c>
@@ -4039,8 +4150,12 @@
         <f>A29*K$2+B29*L$2+C29*M$2+D29*N$2+E29*O$2+F29*P$2+G29*Q$2</f>
         <v>-17300711</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1988</v>
       </c>
@@ -4072,8 +4187,12 @@
         <f>A30*K$2+B30*L$2+C30*M$2+D30*N$2+E30*O$2+F30*P$2+G30*Q$2</f>
         <v>-17091696</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1736</v>
       </c>
@@ -4105,8 +4224,12 @@
         <f>A31*K$2+B31*L$2+C31*M$2+D31*N$2+E31*O$2+F31*P$2+G31*Q$2</f>
         <v>-17077131</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2016</v>
       </c>
@@ -4138,8 +4261,12 @@
         <f>A32*K$2+B32*L$2+C32*M$2+D32*N$2+E32*O$2+F32*P$2+G32*Q$2</f>
         <v>-16936026</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2050</v>
       </c>
@@ -4171,8 +4298,12 @@
         <f>A33*K$2+B33*L$2+C33*M$2+D33*N$2+E33*O$2+F33*P$2+G33*Q$2</f>
         <v>-16818784</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2009</v>
       </c>
@@ -4204,8 +4335,12 @@
         <f>A34*K$2+B34*L$2+C34*M$2+D34*N$2+E34*O$2+F34*P$2+G34*Q$2</f>
         <v>-16300225</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2282</v>
       </c>
@@ -4237,8 +4372,12 @@
         <f>A35*K$2+B35*L$2+C35*M$2+D35*N$2+E35*O$2+F35*P$2+G35*Q$2</f>
         <v>-16248782</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2064</v>
       </c>
@@ -4270,8 +4409,12 @@
         <f>A36*K$2+B36*L$2+C36*M$2+D36*N$2+E36*O$2+F36*P$2+G36*Q$2</f>
         <v>-16101983</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2156</v>
       </c>
@@ -4303,8 +4446,12 @@
         <f>A37*K$2+B37*L$2+C37*M$2+D37*N$2+E37*O$2+F37*P$2+G37*Q$2</f>
         <v>-15730943</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1869</v>
       </c>
@@ -4336,8 +4483,12 @@
         <f>A38*K$2+B38*L$2+C38*M$2+D38*N$2+E38*O$2+F38*P$2+G38*Q$2</f>
         <v>-15690955</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1673</v>
       </c>
@@ -4369,8 +4520,12 @@
         <f>A39*K$2+B39*L$2+C39*M$2+D39*N$2+E39*O$2+F39*P$2+G39*Q$2</f>
         <v>-15529964</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1938</v>
       </c>
@@ -4402,8 +4557,12 @@
         <f>A40*K$2+B40*L$2+C40*M$2+D40*N$2+E40*O$2+F40*P$2+G40*Q$2</f>
         <v>-15444760</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1799</v>
       </c>
@@ -4435,8 +4594,12 @@
         <f>A41*K$2+B41*L$2+C41*M$2+D41*N$2+E41*O$2+F41*P$2+G41*Q$2</f>
         <v>-15191164</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1603</v>
       </c>
@@ -4468,8 +4631,12 @@
         <f>A42*K$2+B42*L$2+C42*M$2+D42*N$2+E42*O$2+F42*P$2+G42*Q$2</f>
         <v>-15010048</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1988</v>
       </c>
@@ -4501,8 +4668,12 @@
         <f>A43*K$2+B43*L$2+C43*M$2+D43*N$2+E43*O$2+F43*P$2+G43*Q$2</f>
         <v>-14556040</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1785</v>
       </c>
@@ -4534,8 +4705,12 @@
         <f>A44*K$2+B44*L$2+C44*M$2+D44*N$2+E44*O$2+F44*P$2+G44*Q$2</f>
         <v>-14281524</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1694</v>
       </c>
@@ -4567,8 +4742,12 @@
         <f>A45*K$2+B45*L$2+C45*M$2+D45*N$2+E45*O$2+F45*P$2+G45*Q$2</f>
         <v>-14069808</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1897</v>
       </c>
@@ -4600,8 +4779,12 @@
         <f>A46*K$2+B46*L$2+C46*M$2+D46*N$2+E46*O$2+F46*P$2+G46*Q$2</f>
         <v>-13897003</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1470</v>
       </c>
@@ -4633,8 +4816,12 @@
         <f>A47*K$2+B47*L$2+C47*M$2+D47*N$2+E47*O$2+F47*P$2+G47*Q$2</f>
         <v>-12972490</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1582</v>
       </c>
@@ -4666,8 +4853,12 @@
         <f>A48*K$2+B48*L$2+C48*M$2+D48*N$2+E48*O$2+F48*P$2+G48*Q$2</f>
         <v>-12669408</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1476</v>
       </c>
@@ -4699,8 +4890,12 @@
         <f>A49*K$2+B49*L$2+C49*M$2+D49*N$2+E49*O$2+F49*P$2+G49*Q$2</f>
         <v>-12409561</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1225</v>
       </c>
@@ -4732,8 +4927,12 @@
         <f>A50*K$2+B50*L$2+C50*M$2+D50*N$2+E50*O$2+F50*P$2+G50*Q$2</f>
         <v>-11979551</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1036</v>
       </c>
@@ -4765,8 +4964,12 @@
         <f>A51*K$2+B51*L$2+C51*M$2+D51*N$2+E51*O$2+F51*P$2+G51*Q$2</f>
         <v>-10979515</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1225</v>
       </c>
@@ -4798,8 +5001,12 @@
         <f>A52*K$2+B52*L$2+C52*M$2+D52*N$2+E52*O$2+F52*P$2+G52*Q$2</f>
         <v>-10803268</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1008</v>
       </c>
@@ -4831,8 +5038,12 @@
         <f>A53*K$2+B53*L$2+C53*M$2+D53*N$2+E53*O$2+F53*P$2+G53*Q$2</f>
         <v>-8985043</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>966</v>
       </c>
@@ -4864,8 +5075,12 @@
         <f>A54*K$2+B54*L$2+C54*M$2+D54*N$2+E54*O$2+F54*P$2+G54*Q$2</f>
         <v>-8767672</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>693</v>
       </c>
@@ -4897,8 +5112,12 @@
         <f>A55*K$2+B55*L$2+C55*M$2+D55*N$2+E55*O$2+F55*P$2+G55*Q$2</f>
         <v>-8753624</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>868</v>
       </c>
@@ -4930,8 +5149,12 @@
         <f>A56*K$2+B56*L$2+C56*M$2+D56*N$2+E56*O$2+F56*P$2+G56*Q$2</f>
         <v>-8146188</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1169</v>
       </c>
@@ -4963,8 +5186,12 @@
         <f>A57*K$2+B57*L$2+C57*M$2+D57*N$2+E57*O$2+F57*P$2+G57*Q$2</f>
         <v>-8144976</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>658</v>
       </c>
@@ -4996,8 +5223,12 @@
         <f>A58*K$2+B58*L$2+C58*M$2+D58*N$2+E58*O$2+F58*P$2+G58*Q$2</f>
         <v>-7395401</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>623</v>
       </c>
@@ -5029,8 +5260,12 @@
         <f>A59*K$2+B59*L$2+C59*M$2+D59*N$2+E59*O$2+F59*P$2+G59*Q$2</f>
         <v>-5885093</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>455</v>
       </c>
@@ -5062,8 +5297,12 @@
         <f>A60*K$2+B60*L$2+C60*M$2+D60*N$2+E60*O$2+F60*P$2+G60*Q$2</f>
         <v>-4917872</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>371</v>
       </c>
@@ -5095,8 +5334,12 @@
         <f>A61*K$2+B61*L$2+C61*M$2+D61*N$2+E61*O$2+F61*P$2+G61*Q$2</f>
         <v>-3978402</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>196</v>
       </c>
@@ -5128,8 +5371,12 @@
         <f>A62*K$2+B62*L$2+C62*M$2+D62*N$2+E62*O$2+F62*P$2+G62*Q$2</f>
         <v>-3787798</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>203</v>
       </c>
@@ -5161,8 +5408,12 @@
         <f>A63*K$2+B63*L$2+C63*M$2+D63*N$2+E63*O$2+F63*P$2+G63*Q$2</f>
         <v>-3020828</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-217</v>
       </c>
@@ -5194,8 +5445,12 @@
         <f>A64*K$2+B64*L$2+C64*M$2+D64*N$2+E64*O$2+F64*P$2+G64*Q$2</f>
         <v>-2603032</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-196</v>
       </c>
@@ -5227,8 +5482,12 @@
         <f>A65*K$2+B65*L$2+C65*M$2+D65*N$2+E65*O$2+F65*P$2+G65*Q$2</f>
         <v>-2066944</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-224</v>
       </c>
@@ -5260,8 +5519,12 @@
         <f>A66*K$2+B66*L$2+C66*M$2+D66*N$2+E66*O$2+F66*P$2+G66*Q$2</f>
         <v>-1448504</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-350</v>
       </c>
@@ -5293,8 +5556,12 @@
         <f>A67*K$2+B67*L$2+C67*M$2+D67*N$2+E67*O$2+F67*P$2+G67*Q$2</f>
         <v>-641454</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>77</v>
       </c>
@@ -5326,8 +5593,12 @@
         <f>A68*K$2+B68*L$2+C68*M$2+D68*N$2+E68*O$2+F68*P$2+G68*Q$2</f>
         <v>-7443</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U68">
+        <f t="shared" ref="U68:U69" si="1">IF(S68&lt;U$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-350</v>
       </c>
@@ -5358,6 +5629,10 @@
       <c r="S69">
         <f>A69*K$2+B69*L$2+C69*M$2+D69*N$2+E69*O$2+F69*P$2+G69*Q$2</f>
         <v>1038891</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5372,8 +5647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
